--- a/processing/GCOMC CHLA monthly_missing_data.xlsx
+++ b/processing/GCOMC CHLA monthly_missing_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robel\Documents\sagamibay\NOWPAP\NMEW.demos\processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E7175268-F502-4FAB-9CE0-4593443EBE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B396DAF-BB38-4A37-A71E-27EBC61544B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCOMC CHLA monthly_missing_data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4480,7 +4480,7804 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GCOMC CHLA monthly_missing_data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AvgMissingPercentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GCOMC CHLA monthly_missing_data'!$A$2:$A$612</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="611"/>
+                <c:pt idx="0">
+                  <c:v>43106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43226</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43238</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43254</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43256</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43260</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43268</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43279</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43280</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43290</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43295</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43298</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43302</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43310</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43314</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43318</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43321</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43322</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43325</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43326</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43348</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43352</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43360</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43362</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43366</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43382</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43415</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43420</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43424</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43438</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43461</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43468</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43479</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43483</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43484</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43491</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43498</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43499</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43529</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43541</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43548</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43551</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43590</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43596</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43673</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43676</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43680</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43681</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43683</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43687</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43688</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43691</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43695</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43696</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43702</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43703</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43710</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43714</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43734</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43766</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43783</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43785</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43786</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43802</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43813</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43817</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43819</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43823</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43827</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43828</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43836</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44394</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44402</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44499</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44527</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44534</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44541</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44542</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44548</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44549</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44553</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44556</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44597</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44598</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44954</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44961</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44968</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44975</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44983</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>45024</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>45025</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>45032</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>45067</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>45070</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>45081</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>45090</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>45093</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>45094</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>45109</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>45119</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>45123</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>45126</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>45130</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>45134</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>45135</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>45141</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>45142</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>45143</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>45145</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>45146</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>45149</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>45150</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>45154</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>45157</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>45158</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>45160</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>45161</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>45162</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>45164</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>45165</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>45183</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>45187</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>45188</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>45194</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>45195</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>45198</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>45202</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>45206</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>45211</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>45218</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>45221</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>45222</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>45225</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>45228</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>45229</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>45232</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>45233</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>45244</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>45251</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>45259</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>45274</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>45277</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>45285</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>45286</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>45290</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>45335</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>45346</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>45350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GCOMC CHLA monthly_missing_data'!$B$2:$B$612</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="611"/>
+                <c:pt idx="0">
+                  <c:v>13.6840809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.251522860000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9411514820000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.43903867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7178735440000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.240129750000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.997395359999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.491519780000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.464774589999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.6739213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3178292739999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.04526613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.085313599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.86060468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.043628050000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.775057447</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.914527289999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.100821199999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.432920709999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.400003559999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.519077549999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.309580010000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9437566430000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.049552980000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.380262729999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.650871660000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.372558959999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.064784650000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.744556210000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.407837199999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.2218477540000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.220874890000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.220611959999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.120575289999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.527866410000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.13626599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.553580150000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.06957637</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.961426529999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.896392015</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.210908680000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3947451040000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45.023838140000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.010419550000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64.578681610000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.83762224</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.840090719999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53.524435109999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63.846996859999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2598574229999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.027272440000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64.953611260000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68.055448100000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.780918210000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.852388310000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.2945340890000008</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.587446289999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48.370766199999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.560351789999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.51028977</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.605393980000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48.104179870000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.290938439999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28.62999718</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24.448578349999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.920861049999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29.961815269999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47.321891630000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>58.842404999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.156752150000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66.623049640000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.040835639999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.431103059999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.07234141</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5226237759999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3380078900000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.815659780000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43.857762819999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.358418610000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43.175068430000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.80844643</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.1880551270000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51.470280600000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.4632507659999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.15493536</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.420370910000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.119386930000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.141084079999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31.927648430000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35.386916659999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28.214653999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>47.629917769999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38.255852699999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.74622076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>53.912840520000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35.719798599999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.4312585519999992</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29.146426340000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.468900349999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42.173489539999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44.0581101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28.885895080000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.719292759999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18.73191435</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.37588613</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>22.673788980000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.9929484849999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0460685950000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9350854689999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.3566852420000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.488806310000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58.419919180000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.5016520580000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.2998847639999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21.308879709999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.9144829009999995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.4587921909999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16.074319249999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.6162588750000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9225683820000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60.332752980000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>33.418116650000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11.21752592</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62.709235669999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>38.114170090000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>64.893213250000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>57.615956230000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>29.488784389999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>72.846671599999993</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>36.51200875</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>34.837696719999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>49.61328563</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.50447526</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.7879219740000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.75735879</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>34.967307120000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28.680198619999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>23.12124081</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>62.07296092</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>26.10858971</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.470286639999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.47542201</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.9263545820000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.4119476579999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>18.142757970000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.49400997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44.02215245</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>46.305129870000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74.878293650000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>51.150368579999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>33.762691480000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.9715568860000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11.13418381</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.27114357</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27.418336400000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.498518604</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36.904232290000003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.3434553250000008</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>50.368714449999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>55.456860810000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.5061598590000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>47.628147210000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>70.39733846</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>59.894004410000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.131248813</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>66.39330966</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>40.54798796</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.6094156810000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>50.784382579999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>15.28723467</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.9702941349999996</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.7935798040000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>71.755742940000005</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>65.440616460000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.5680383569999998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>40.662019579999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>48.41608591</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>14.41247731</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>46.831013919999997</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>51.047120419999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>31.332242690000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11.13017048</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>26.950076660000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>19.166018579999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>71.565029129999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>55.265348680000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>58.024015130000002</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12.03781519</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>35.710321970000003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.0113160529999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.2001156899999996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11.73441292</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.6517101879999991</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>72.240412689999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>20.184077429999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14.708522690000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>31.169901400000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>13.919403750000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43.599874010000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.2790094809999992</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>21.994568919999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6.7579444009999996</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43.175623539999997</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>41.939600329999998</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>50.542806939999998</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12.51915793</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.8331467589999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.9935341979999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.1977871090000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28.326041549999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>11.71446982</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>33.457172489999998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.121071150000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>71.422470419999996</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5.7717920879999998</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>46.973604610000002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>25.136817560000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>12.42906204</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>20.20168155</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>38.283809840000004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6.1512413730000004</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>30.682964290000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>74.509711260000003</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>56.011829319999997</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>61.623942470000003</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>11.46493931</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>57.189923640000004</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>41.383125759999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>54.476204019999997</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>66.10142046</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8.7816560569999993</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>66.838348240000002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.4606815629999996</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.8689262360000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>17.46219567</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.9700839820000002</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>45.373807679999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>13.492963550000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26.89118655</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>51.27296561</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11.467294519999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7.3429083860000004</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>66.808956589999994</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>71.016009600000004</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>52.876156569999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>59.318684830000002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>38.807759820000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>53.25047206</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>69.497904680000005</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65.482874980000005</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>18.454649270000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>21.00241166</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>18.607975079999999</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>65.093728069999997</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>69.85263003</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>61.411299839999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>24.77151014</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25.406242469999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.5965246769999999</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>65.695978749999995</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11.095734630000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>38.504238239999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>17.917539470000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.7030184030000002</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.556570046</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.6256023420000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>25.114347089999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>18.176406960000001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>59.761880040000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>31.724351949999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>6.7625741210000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44.517583340000002</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>19.296522670000002</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>18.043812509999999</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13.730647340000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>14.27510444</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>19.05038235</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>41.469245149999999</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>23.92112646</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>49.126916180000002</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>21.237191920000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>25.85072267</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>10.18876032</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.0933798919999997</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10.50828184</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>59.153205649999997</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>71.833266640000005</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>10.943536809999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>17.236584369999999</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26.974084609999998</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>54.313532940000002</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>22.305279649999999</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>15.204512340000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>17.251101769999998</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>19.250678959999998</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>70.981960959999995</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>39.743808059999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>23.846734300000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.5199679069999998</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.2364600110000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11.24030774</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>56.325537089999997</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>12.34526211</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>8.9980666770000006</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>69.332355100000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5.0577237110000004</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>54.775326810000003</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>4.4535901679999998</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>24.277699810000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>65.450993749999995</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>68.520200250000002</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>65.462855090000005</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8.9916326019999993</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>47.655300359999998</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>51.212880609999999</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>34.540976559999997</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>42.956135289999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>24.859259460000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.284704198</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>4.131653451</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>6.4845786519999997</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>47.672423790000003</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>25.507256229999999</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4.6439137190000004</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>50.621403020000002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>20.41490447</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>48.999354420000003</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5.6419821600000004</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>67.290320829999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>16.500198749999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>17.570648089999999</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>43.107377040000003</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4.1269554819999996</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>27.228689849999999</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>47.812512509999998</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>20.039137539999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>55.41629666</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44.343597799999998</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>11.64388117</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>67.313817619999995</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>28.66629966</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>11.7489522</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3.6910160470000002</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>10.53540587</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>34.846559460000002</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>12.60596451</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>18.082691140000001</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>56.974767049999997</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>36.229488840000002</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>42.564288660000003</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>68.228471470000002</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>32.710891650000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>28.651507290000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7.37193466</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>25.46376201</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>40.421858780000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>41.670055470000001</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8.0205112599999993</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>6.2801654300000003</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>50.477781630000003</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>36.3371213</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>7.6844118879999996</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>24.162788819999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>4.6729819670000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>20.64189013</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.0449147249999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>10.267397239999999</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>60.350158059999998</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>64.932245929999993</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>23.331774759999998</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>10.670894349999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2.5193986759999998</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>23.022390420000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>14.52815442</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2.2545398159999999</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>30.52591396</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>17.430072379999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>4.58938019</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>51.159030530000003</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>45.148674409999998</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>29.600578370000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>24.414616559999999</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>20.030553699999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>4.7567175019999999</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>67.328222139999994</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>26.019076219999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>14.683942139999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>9.5867645970000002</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>70.198644970000004</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>9.5474286260000003</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>34.44252298</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>21.527652079999999</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>21.418566569999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>4.5964900350000004</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>48.173114730000002</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>28.25250406</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>38.509433250000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>64.23466415</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>12.922757020000001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>2.498626061</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>17.35468904</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>52.879321050000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>4.8203509530000002</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>45.220595459999998</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>30.466886890000001</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>20.615095180000001</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>68.714991909999995</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>11.67831999</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>5.2538570939999998</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>50.70561636</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>16.33980751</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>21.356718690000001</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2.6196808140000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>33.154966450000003</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>3.2662192390000002</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>4.5402302099999998</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>14.09997343</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>38.41598261</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2.4585274359999998</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>68.964333920000001</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>51.400106600000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>26.266839910000002</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>18.864146980000001</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>46.171353930000002</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>20.290171369999999</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>59.858011730000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>37.06684087</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>23.477760759999999</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>30.225800419999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>60.373835020000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>72.242019440000007</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>9.2004837849999994</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2.8062360800000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>40.90999283</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>27.390644399999999</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>4.6252355119999997</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>4.3493986800000002</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>52.651812659999997</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>18.328254520000002</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>10.380779009999999</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>31.93848968</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>28.818005500000002</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>25.602451640000002</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>14.5079118</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>71.302395489999995</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>45.218311159999999</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>55.328044689999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>23.223539540000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>68.775137110000003</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>42.730146949999998</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2.2081250589999999</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3.0656217209999999</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>9.1682014499999998</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>61.000322629999999</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>6.13903731</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>9.1569071419999997</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>41.785915860000003</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>63.856448120000003</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>47.399513030000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>12.04087453</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>33.234715780000002</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>3.4064657039999999</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>8.9103070770000006</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44.645515080000003</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>35.037390530000003</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>70.121021429999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>17.630569680000001</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>52.002107479999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>34.559605879999999</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>20.237688240000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>17.592362609999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>9.0627713429999996</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>4.4213955279999997</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>28.524791</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>17.896081089999999</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>11.77059908</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>16.541009320000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>9.3608867799999995</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>50.950183330000002</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>12.985638140000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>13.43021345</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>9.0131897460000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>7.0227910319999998</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>6.2535606799999996</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>19.69130741</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>13.797237040000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>12.010288640000001</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>74.494043820000002</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>17.912268269999998</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>7.97060982</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>65.115873530000002</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>5.8575990549999997</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>28.560586539999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>4.3317097430000002</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>29.8900465</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>3.5351906940000002</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>2.4551162359999998</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>29.294740050000001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>51.308295569999999</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>46.081727919999999</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>63.96485199</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>29.706187109999998</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>47.775839159999997</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>49.091995509999997</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>13.403739789999999</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>53.939146350000001</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>16.264352800000001</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.6527713300000002</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>43.690393270000001</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>16.429307850000001</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>14.38802345</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>4.307839188</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>7.9103474470000004</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>22.772896070000002</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2.9400696339999999</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>32.857949779999998</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>10.111548770000001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>5.133096085</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>68.352716450000003</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>26.085338409999999</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>5.3280091269999996</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>67.175963019999998</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>66.650871660000007</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44.485353089999997</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>21.189447120000001</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>5.5942536230000002</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>38.347013930000003</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>73.475954920000007</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>57.119699099999998</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>60.738925479999999</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>13.92783871</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>3.0086974959999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>39.993327870000002</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>7.9302171289999999</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>3.352056938</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>49.710940479999998</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>15.87763312</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>42.542276710000003</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>3.8367989649999998</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>20.889517430000001</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>40.345009750000003</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>32.124482100000002</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>17.654180570000001</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>4.2186424029999996</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>54.130615349999999</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>19.777493069999998</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>10.32570701</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>27.40119232</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>47.962945150000003</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>52.335692950000002</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>14.106672189999999</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>20.943759579999998</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>31.853692670000001</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>39.028292829999998</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>15.08854163</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>11.420545580000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>20.800539100000002</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>27.720652579999999</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>72.069465219999998</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>64.819616960000005</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>39.399338640000003</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>37.344163770000002</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>20.92158173</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>23.824309509999999</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>30.444304720000002</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>22.659120049999999</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>23.59554322</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>2.4383478040000002</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>9.0676031300000002</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>65.07749183</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>2.6039987999999998</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>3.2598665630000001</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>5.3619677760000002</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>21.183481660000002</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>17.6365652</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>6.1109786130000003</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>2.8749721419999998</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>53.966103109999999</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>14.82444248</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>3.2624652909999998</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>57.55005568</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>18.788440260000002</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>4.7225538599999997</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>2.2352895579999998</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>31.782641430000002</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>16.095119530000002</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>51.5293268</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>60.880380940000002</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>31.200193280000001</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>22.016738969999999</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>3.24369964</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>18.602261049999999</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>22.967087119999999</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>13.824596440000001</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>54.682617469999997</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>17.371847030000001</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>22.574841750000001</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>4.2766176739999997</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>20.631249530000002</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>50.167539609999999</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>27.120511130000001</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>5.5468698639999996</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>13.397471530000001</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>23.953987179999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>61.725870100000002</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>10.65132906</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>54.339975930000001</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>65.594927400000003</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>30.588226970000001</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>2.9174052150000001</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>3.025940619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AB3-4816-AF21-47471A9D4475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1441028496"/>
+        <c:axId val="949575472"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GCOMC CHLA monthly_missing_data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Num Days in month &gt; 70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GCOMC CHLA monthly_missing_data'!$A$2:$A$612</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="611"/>
+                <c:pt idx="0">
+                  <c:v>43106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43226</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43238</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43254</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43256</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43260</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43268</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43279</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43280</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43290</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43295</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43298</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43302</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43310</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43314</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43318</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43321</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43322</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43325</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43326</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43348</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43352</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43360</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43362</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43366</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43367</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43382</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43415</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43419</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43420</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43424</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43427</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43438</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43442</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43461</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43468</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43479</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43483</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43484</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43491</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43498</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43499</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43529</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43541</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43548</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43551</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43590</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43596</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43673</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43676</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43680</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43681</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43683</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43687</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43688</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43691</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43695</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43696</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43702</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43703</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43710</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43714</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43734</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43766</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43783</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43785</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43786</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43802</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43813</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43817</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43819</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43823</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43827</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43828</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43836</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44334</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44357</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44394</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44402</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44455</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44499</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44527</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44534</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44541</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44542</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44548</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44549</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44553</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44556</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44597</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44598</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44618</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44919</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44934</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44939</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44954</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44961</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44968</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44975</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44979</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44983</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44992</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>45007</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>45014</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>45024</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>45025</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>45032</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>45067</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>45070</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>45081</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>45090</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>45093</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>45094</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>45109</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>45119</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>45123</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>45126</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>45130</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>45134</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>45135</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>45141</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>45142</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>45143</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>45145</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>45146</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>45149</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>45150</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>45154</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>45157</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>45158</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>45160</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>45161</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>45162</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>45164</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>45165</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>45183</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>45187</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>45188</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>45194</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>45195</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>45198</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>45202</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>45206</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>45211</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>45218</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>45221</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>45222</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>45225</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>45228</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>45229</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>45232</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>45233</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>45244</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>45251</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>45252</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>45259</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>45274</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>45277</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>45285</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>45286</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>45290</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>45335</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>45346</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>45350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GCOMC CHLA monthly_missing_data'!$C$2:$C$612</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="611"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AB3-4816-AF21-47471A9D4475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1499098400"/>
+        <c:axId val="1495064480"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1441028496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949575472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="949575472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1441028496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1495064480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1499098400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1499098400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1495064480"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5036,6 +12833,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5069,6 +13382,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D9DB40-CD74-BAD9-619C-8FAA41E12850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5393,14 +13742,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
